--- a/TestData/TestCaseSelection.xlsx
+++ b/TestData/TestCaseSelection.xlsx
@@ -19,46 +19,46 @@
     <t>Run</t>
   </si>
   <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>AccountCreationBillTo</t>
+  </si>
+  <si>
+    <t>AccountCreationShipTo</t>
+  </si>
+  <si>
+    <t>ScriptPath1</t>
+  </si>
+  <si>
+    <t>Resources\Generic_FunctionLibrary\Login</t>
+  </si>
+  <si>
+    <t>Resources\AppSpecific_FunctionLibrary\AccountCreationBillTo</t>
+  </si>
+  <si>
+    <t>Resources\AppSpecific_FunctionLibrary\AccountCreationShipTo</t>
+  </si>
+  <si>
+    <t>Resources\Generic_FunctionLibrary\LogOut</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>BillToNegative</t>
+  </si>
+  <si>
+    <t>Resources\AppSpecific_FunctionLibrary\BillToNegative</t>
+  </si>
+  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>TestCaseName</t>
-  </si>
-  <si>
-    <t>AccountCreationBillTo</t>
-  </si>
-  <si>
-    <t>AccountCreationShipTo</t>
-  </si>
-  <si>
-    <t>ScriptPath1</t>
-  </si>
-  <si>
-    <t>Resources\Generic_FunctionLibrary\Login</t>
-  </si>
-  <si>
-    <t>Resources\AppSpecific_FunctionLibrary\AccountCreationBillTo</t>
-  </si>
-  <si>
-    <t>Resources\AppSpecific_FunctionLibrary\AccountCreationShipTo</t>
-  </si>
-  <si>
-    <t>Resources\Generic_FunctionLibrary\LogOut</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>BillToNegative</t>
-  </si>
-  <si>
-    <t>Resources\AppSpecific_FunctionLibrary\BillToNegative</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,65 +414,65 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
